--- a/results/cora-experiments-walk-number.xlsx
+++ b/results/cora-experiments-walk-number.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,32 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>accuracy (mean)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>f1_micro</t>
+          <t>accuracy (std)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>f1_macro</t>
+          <t>f1_micro (mean)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>f1_micro (std)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro (mean)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro (std)</t>
         </is>
       </c>
     </row>
@@ -487,13 +502,22 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5298763224556698</v>
+        <v>0.4705707048129936</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5298763224556698</v>
+        <v>0.03337337920129175</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4688410868033337</v>
+        <v>0.4705707048129936</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03337337920129176</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3656823248414783</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0574310670614002</v>
       </c>
     </row>
     <row r="3">
@@ -513,13 +537,22 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7079421844732529</v>
+        <v>0.7025778572492922</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7079421844732531</v>
+        <v>0.01168178043362813</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6799726317143203</v>
+        <v>0.7025778572492922</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.01168178043362809</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6510251706248057</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.03663534351262658</v>
       </c>
     </row>
     <row r="4">
@@ -539,13 +572,22 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7454924750409774</v>
+        <v>0.7440023841454328</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7454924750409774</v>
+        <v>0.01230385656584294</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7259758907953913</v>
+        <v>0.7440023841454328</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01230385656584294</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7225526366345174</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.01095809135616715</v>
       </c>
     </row>
     <row r="5">
@@ -565,13 +607,22 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7416182387125615</v>
+        <v>0.7396811205483534</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7416182387125615</v>
+        <v>0.006208513382804222</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7141929333225397</v>
+        <v>0.7396811205483534</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.00620851338280417</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7109628279799615</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.002363207558390421</v>
       </c>
     </row>
     <row r="6">
@@ -591,13 +642,22 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7669497839368201</v>
+        <v>0.7580092385635524</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7669497839368202</v>
+        <v>0.00369229971490504</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7465614958814416</v>
+        <v>0.7580092385635523</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.003692299714905092</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7291536829174122</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.01888374395665126</v>
       </c>
     </row>
     <row r="7">
@@ -617,13 +677,22 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7626285203397408</v>
+        <v>0.7721651020712264</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7626285203397406</v>
+        <v>0.009911064907355629</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7365143505122954</v>
+        <v>0.7721651020712264</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.009911064907355629</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.7472561406730692</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.01155913763700918</v>
       </c>
     </row>
   </sheetData>
